--- a/branches/20220922_v2_10/nbr/src/sql/TableCreate/PrivateDB_Test_SPD.xlsx
+++ b/branches/20220922_v2_10/nbr/src/sql/TableCreate/PrivateDB_Test_SPD.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BXERP\branches\20220922_v2_10\nbr\src\sql\TableCreate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C0A55-CF55-4D78-A1A4-9A835783B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 命令" sheetId="1" r:id="rId1"/>
     <sheet name="私有SPDTest" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,514 +46,513 @@
     <t xml:space="preserve">source </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckBrandID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 2'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCategoryID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 3'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckInventory.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 4'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckNO.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 5'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckProvider.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 6'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckPurchasingOrder.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 7'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckReturnCommoditySheet.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 8'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 9'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckSubCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 10'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckType.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 11'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckWarehousing.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 12'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckInventorySheetID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 13'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckNOReal.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 14'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodtiy_CheckCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 15'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckInventoryCommodtiy.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 16'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStaffID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 17'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 18'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckWarehouseID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 19'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Pos_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 20'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckDatetime.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 21'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckScope.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 22'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckSN.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 23'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 24'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckType.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 25'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckBarcodesID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 26'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 27'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckPackageUnitID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 28'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckPurchasingOrderCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 29'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStaffID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 30'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 31'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommoditySource_CheckNO.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 32'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckBarcodeID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 33'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 34'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckAmount.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 35'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckPaymentType.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 36'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckRetailTradeCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 37'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckSmallSheetID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 38'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 39'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckVipID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 40'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckBarcodeID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 41'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 42'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckReturnCommoditySheetID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 43'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckProviderID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 44'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckReturnCommoditySheetCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 45'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStaffID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 46'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 47'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckNO.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 48'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckWarehousingID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 49'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Shop_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 50'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckICID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 51'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckIsFirstTimeLogin.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 52'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckName.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 53'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckOpenID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 54'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckPhone.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 55'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 56'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckUnionid.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 57'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckWeChat.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 58'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckBonus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 59'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckName.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 60'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 61'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehouse_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 62'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckBarcodesID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 63'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckCommodity.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 64'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckPackageUnitID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 65'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckSalableNO.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 66'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckWarehousingID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 67'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckProviderID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 68'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStaffID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 69'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStatus.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 70'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehouseID.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 71'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehousingCommodity.sql</t>
-  </si>
-  <si>
-    <t>dir /s /b D:\BXERP\branches\20190902_v1_1\src\nbr\src\sql\SP\Doctor\PrivateDB\*.sql &gt;1.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCouponScope.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'PrivateDB_SPD_Test 72'$$
 </t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckBrandID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCategoryID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCouponScope.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckInventory.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckNO.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckProvider.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckPurchasingOrder.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckReturnCommoditySheet.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckSubCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckType.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckWarehousing.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckInventorySheetID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckNOReal.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodtiy_CheckCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckInventoryCommodtiy.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStaffID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckWarehouseID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Pos_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckDatetime.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckScope.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckSN.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckType.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckBarcodesID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckPackageUnitID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckPurchasingOrderCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStaffID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommoditySource_CheckNO.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckBarcodeID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckAmount.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckPaymentType.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckRetailTradeCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckSmallSheetID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckVipID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckBarcodeID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckReturnCommoditySheetID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckProviderID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckReturnCommoditySheetCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStaffID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckNO.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckWarehousingID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Shop_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckICID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckIsFirstTimeLogin.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckName.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckOpenID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckPhone.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckUnionid.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckWeChat.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckBonus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckName.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehouse_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckBarcodesID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckCommodity.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckPackageUnitID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckSalableNO.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckWarehousingID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckProviderID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStaffID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStatus.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehouseID.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehousingCommodity.sql</t>
+  </si>
+  <si>
+    <t>dir /s /b D:\BXERP\branches\20220922_v2_10\nbr\src\sql\SP\Doctor\PrivateDB\*.sql &gt;1.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,6 +564,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -596,6 +615,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -643,7 +665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +698,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,6 +750,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -886,10 +942,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -899,7 +957,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -913,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,1148 +993,1148 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
         <v>SELECT 'PrivateDB_SPD_Test 1'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckBrandID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckBrandID.sql</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D33" si="0">CONCATENATE(A2,B2,C2)</f>
         <v>SELECT 'PrivateDB_SPD_Test 2'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCategoryID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCategoryID.sql</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 3'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCouponScope.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckCouponScope.sql</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 4'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckInventory.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckInventory.sql</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 5'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckNO.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckNO.sql</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 6'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckProvider.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckProvider.sql</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 7'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckPurchasingOrder.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckPurchasingOrder.sql</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 8'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckReturnCommoditySheet.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckReturnCommoditySheet.sql</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 9'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckStatus.sql</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 10'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckSubCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckSubCommodity.sql</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 11'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckType.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckType.sql</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 12'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckWarehousing.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Commodity_CheckWarehousing.sql</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 13'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckInventorySheetID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckInventorySheetID.sql</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 14'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckNOReal.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodity_CheckNOReal.sql</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 15'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodtiy_CheckCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_InventoryCommodtiy_CheckCommodity.sql</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 16'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckInventoryCommodtiy.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckInventoryCommodtiy.sql</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 17'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStaffID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStaffID.sql</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 18'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckStatus.sql</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 19'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckWarehouseID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Inventory_CheckWarehouseID.sql</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 20'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Pos_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Pos_CheckStatus.sql</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 21'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckDatetime.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckDatetime.sql</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 22'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckScope.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckScope.sql</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 23'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckSN.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckSN.sql</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 24'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckStatus.sql</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 25'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckType.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Promotion_CheckType.sql</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 26'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckBarcodesID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckBarcodesID.sql</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 27'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckCommodity.sql</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 28'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckPackageUnitID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrderCommodity_CheckPackageUnitID.sql</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 29'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckPurchasingOrderCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckPurchasingOrderCommodity.sql</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 30'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStaffID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStaffID.sql</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 31'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_PurchasingOrder_CheckStatus.sql</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 32'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommoditySource_CheckNO.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommoditySource_CheckNO.sql</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'PrivateDB_SPD_Test 33'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckBarcodeID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckBarcodeID.sql</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" ref="D34:D72" si="1">CONCATENATE(A34,B34,C34)</f>
         <v>SELECT 'PrivateDB_SPD_Test 34'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTradeCommodity_CheckCommodity.sql</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 35'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckAmount.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckAmount.sql</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 36'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckPaymentType.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckPaymentType.sql</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 37'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckRetailTradeCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckRetailTradeCommodity.sql</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 38'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckSmallSheetID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckSmallSheetID.sql</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 39'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckStatus.sql</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 40'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckVipID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_RetailTrade_CheckVipID.sql</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 41'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckBarcodeID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckBarcodeID.sql</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 42'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckCommodity.sql</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 43'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckReturnCommoditySheetID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheetCommodity_CheckReturnCommoditySheetID.sql</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 44'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckProviderID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckProviderID.sql</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 45'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckReturnCommoditySheetCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckReturnCommoditySheetCommodity.sql</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 46'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStaffID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStaffID.sql</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 47'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_ReturnCommoditySheet_CheckStatus.sql</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 48'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckNO.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckNO.sql</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 49'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckWarehousingID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Returnretailtradecommoditydestination_CheckWarehousingID.sql</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 50'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Shop_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Shop_CheckStatus.sql</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 51'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckICID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckICID.sql</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 52'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckIsFirstTimeLogin.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckIsFirstTimeLogin.sql</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 53'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckName.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckName.sql</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 54'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckOpenID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckOpenID.sql</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 55'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckPhone.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckPhone.sql</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 56'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckStatus.sql</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 57'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckUnionid.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckUnionid.sql</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 58'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckWeChat.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Staff_CheckWeChat.sql</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 59'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckBonus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckBonus.sql</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 60'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckName.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckName.sql</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 61'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Vip_CheckStatus.sql</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 62'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehouse_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehouse_CheckStatus.sql</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 63'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckBarcodesID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckBarcodesID.sql</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 64'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckCommodity.sql</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 65'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckPackageUnitID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckPackageUnitID.sql</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 66'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckSalableNO.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckSalableNO.sql</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 67'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckWarehousingID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_WarehousingCommodity_CheckWarehousingID.sql</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 68'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckProviderID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckProviderID.sql</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 69'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStaffID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStaffID.sql</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 70'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStatus.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckStatus.sql</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 71'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehouseID.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehouseID.sql</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>SELECT 'PrivateDB_SPD_Test 72'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehousingCommodity.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/SP/Doctor/PrivateDB/SPD_Warehousing_CheckWarehousingCommodity.sql</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -2084,7 +2142,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="str">
-        <f t="shared" ref="D72:D74" si="2">CONCATENATE(B73,C73)</f>
+        <f t="shared" ref="D73:D74" si="2">CONCATENATE(B73,C73)</f>
         <v/>
       </c>
     </row>
